--- a/doc/03.문서/01.시스템구성도.xlsx
+++ b/doc/03.문서/01.시스템구성도.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="108" windowWidth="16776" windowHeight="5592" activeTab="1"/>
+    <workbookView xWindow="192" yWindow="108" windowWidth="16776" windowHeight="5592"/>
   </bookViews>
   <sheets>
     <sheet name="01.site" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,14 @@
 3. Test 쿼리 실행하여 Db Info 데이터 쿠키에 저장
 4. 입력 쿼리 실행하여 성공 결과 출력
 5. 입력 쿼리 실행하여 오류 결과 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ 설정시 다국어 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -377,26 +385,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,17 +425,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -775,10 +764,10 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -790,7 +779,7 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
         <v>40</v>
@@ -801,7 +790,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -812,8 +801,8 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
@@ -823,7 +812,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="52.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
@@ -834,7 +823,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
@@ -845,7 +834,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -858,7 +847,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
@@ -868,11 +857,11 @@
       <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -881,12 +870,25 @@
       <c r="D10" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -897,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
